--- a/outputs/DF_REPORT.xlsx
+++ b/outputs/DF_REPORT.xlsx
@@ -11194,7 +11194,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2008-07-06T00:00:00</t>
+          <t>2008-07-02T22:58:14</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
